--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="498">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:37:23+00:00</t>
+    <t>2025-11-13T10:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -432,33 +432,57 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:pieceJointeBesoin</t>
+  </si>
+  <si>
+    <t>pieceJointeBesoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+</t>
+  </si>
+  <si>
+    <t>Pièce jointe</t>
+  </si>
+  <si>
+    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -466,6 +490,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -525,17 +552,13 @@
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1847,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1856,9 +1879,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.62109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.8125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2847,7 +2870,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2866,17 +2889,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2913,16 +2934,14 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -2946,7 +2965,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2960,11 +2979,13 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2977,26 +2998,22 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3044,7 +3061,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3053,7 +3070,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3065,7 +3082,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3076,44 +3093,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3161,7 +3180,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3173,30 +3192,30 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3204,7 +3223,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>90</v>
@@ -3216,18 +3235,20 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3276,53 +3297,53 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3334,17 +3355,15 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3381,31 +3400,31 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3414,7 +3433,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3425,46 +3444,44 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3488,52 +3505,52 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3544,10 +3561,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3564,25 +3581,25 @@
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3607,13 +3624,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3631,7 +3648,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3649,10 +3666,10 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3663,10 +3680,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3689,19 +3706,19 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3714,43 +3731,43 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3768,10 +3785,10 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3782,10 +3799,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3808,18 +3825,20 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3831,43 +3850,43 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3885,10 +3904,10 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3899,10 +3918,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3925,15 +3944,17 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -3946,7 +3967,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -4048,9 +4069,7 @@
       <c r="M19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4099,7 +4118,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4117,10 +4136,10 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4131,10 +4150,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4145,7 +4164,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -4157,16 +4176,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4216,13 +4235,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4231,13 +4250,13 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4248,10 +4267,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4274,7 +4293,7 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>231</v>
@@ -4333,7 +4352,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4351,10 +4370,10 @@
         <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4365,21 +4384,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4391,7 +4410,7 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>238</v>
@@ -4399,7 +4418,9 @@
       <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4448,7 +4469,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4463,13 +4484,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4480,21 +4501,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4506,13 +4527,13 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4563,7 +4584,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4578,13 +4599,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4595,21 +4616,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4621,7 +4642,7 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>253</v>
@@ -4629,12 +4650,8 @@
       <c r="M24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4682,13 +4699,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4697,13 +4714,13 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4714,18 +4731,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4734,24 +4751,26 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4775,13 +4794,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4799,10 +4818,10 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -4814,27 +4833,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4860,13 +4879,13 @@
         <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4892,13 +4911,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4916,7 +4935,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -4931,27 +4950,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4959,7 +4978,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -4968,26 +4987,24 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5011,11 +5028,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5033,13 +5052,13 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
@@ -5048,16 +5067,16 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5065,10 +5084,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5091,22 +5110,24 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q28" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5126,14 +5147,12 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y28" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5150,13 +5169,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5165,16 +5184,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AN28" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5182,10 +5201,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5202,59 +5221,55 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5271,7 +5286,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5286,16 +5301,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5303,18 +5318,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5323,28 +5338,32 @@
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="P30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5364,13 +5383,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5388,7 +5407,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5403,38 +5422,38 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5446,16 +5465,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5481,13 +5500,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5505,53 +5524,53 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5563,18 +5582,18 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5598,13 +5617,13 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -5622,16 +5641,16 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>102</v>
@@ -5640,24 +5659,24 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5665,7 +5684,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
@@ -5680,16 +5699,18 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5737,10 +5758,10 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>90</v>
@@ -5752,35 +5773,35 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>341</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -5795,13 +5816,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5852,10 +5873,10 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>90</v>
@@ -5867,31 +5888,31 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5910,13 +5931,13 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5967,7 +5988,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5982,31 +6003,31 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6025,13 +6046,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6058,13 +6079,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6082,7 +6103,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6097,31 +6118,31 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6140,13 +6161,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6173,13 +6194,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6197,7 +6218,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6212,31 +6233,31 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6255,17 +6276,15 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6314,7 +6333,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6329,31 +6348,31 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6372,16 +6391,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6407,13 +6426,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6431,7 +6450,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6446,38 +6465,38 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6489,16 +6508,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>406</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6524,13 +6543,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>406</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6548,13 +6567,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6563,16 +6582,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6580,14 +6599,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6606,7 +6625,7 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>180</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>414</v>
@@ -6614,7 +6633,9 @@
       <c r="M41" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6639,13 +6660,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6663,7 +6684,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6678,16 +6699,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6695,10 +6716,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6721,13 +6742,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>420</v>
+        <v>187</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6754,13 +6775,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6778,7 +6799,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6799,10 +6820,10 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -6810,10 +6831,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6836,17 +6857,15 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>180</v>
+        <v>427</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6871,13 +6890,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6895,7 +6914,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6910,16 +6929,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AN43" t="s" s="2">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -6927,10 +6946,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6953,16 +6972,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>434</v>
+        <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6988,13 +7007,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7012,7 +7031,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7027,16 +7046,16 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7044,10 +7063,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7067,18 +7086,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7127,7 +7148,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7151,7 +7172,7 @@
         <v>447</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7166,7 +7187,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7185,17 +7206,15 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7259,13 +7278,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7276,14 +7295,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>456</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7299,19 +7318,19 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7361,7 +7380,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7376,7 +7395,7 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>462</v>
@@ -7400,7 +7419,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7419,7 +7438,7 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>180</v>
+        <v>465</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>466</v>
@@ -7430,9 +7449,7 @@
       <c r="N48" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="O48" t="s" s="2">
-        <v>469</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7456,13 +7473,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>470</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7498,28 +7515,28 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>473</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7535,19 +7552,23 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7571,13 +7592,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7595,7 +7616,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7610,27 +7631,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7641,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7650,16 +7671,16 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>158</v>
+        <v>482</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>481</v>
+        <v>50</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7710,13 +7731,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -7725,27 +7746,27 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7756,7 +7777,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7765,20 +7786,18 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>485</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7827,13 +7846,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -7842,10 +7861,10 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>490</v>
@@ -7854,6 +7873,123 @@
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T14:30:08+00:00</t>
+    <t>2025-11-18T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -782,7 +782,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-perso)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
 </t>
   </si>
   <si>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -652,6 +652,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>https://identifiant-medicosocial-besoin.esante.gouv.fr</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -782,7 +785,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
 </t>
   </si>
   <si>
@@ -4015,7 +4018,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>92</v>
@@ -4052,10 +4055,10 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>82</v>
@@ -4091,7 +4094,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4112,10 +4115,10 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>82</v>
@@ -4126,10 +4129,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4137,7 +4140,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>92</v>
@@ -4155,13 +4158,13 @@
         <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4175,7 +4178,7 @@
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -4211,7 +4214,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4232,10 +4235,10 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4246,10 +4249,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4272,13 +4275,13 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4329,7 +4332,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4350,10 +4353,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4364,10 +4367,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4390,16 +4393,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4449,7 +4452,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4470,10 +4473,10 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4484,10 +4487,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4510,16 +4513,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4569,7 +4572,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4587,13 +4590,13 @@
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4604,10 +4607,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4633,13 +4636,13 @@
         <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4689,7 +4692,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4707,13 +4710,13 @@
         <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4724,14 +4727,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4750,13 +4753,13 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4807,7 +4810,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4822,16 +4825,16 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4842,14 +4845,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4868,13 +4871,13 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4925,7 +4928,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4943,13 +4946,13 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4960,14 +4963,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4989,16 +4992,16 @@
         <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5047,7 +5050,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5065,13 +5068,13 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5082,10 +5085,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5111,13 +5114,13 @@
         <v>112</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5146,10 +5149,10 @@
         <v>184</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -5167,7 +5170,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>92</v>
@@ -5185,27 +5188,27 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5231,13 +5234,13 @@
         <v>112</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5266,10 +5269,10 @@
         <v>184</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5287,7 +5290,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>92</v>
@@ -5305,16 +5308,16 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5322,10 +5325,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5351,16 +5354,16 @@
         <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5389,7 +5392,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5407,7 +5410,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5422,19 +5425,19 @@
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5442,10 +5445,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5471,10 +5474,10 @@
         <v>112</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5482,7 +5485,7 @@
         <v>82</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>82</v>
@@ -5506,10 +5509,10 @@
         <v>184</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5527,7 +5530,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5545,16 +5548,16 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5562,10 +5565,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5588,70 +5591,70 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5669,13 +5672,13 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5686,14 +5689,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5715,13 +5718,13 @@
         <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5747,13 +5750,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5771,7 +5774,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5789,27 +5792,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5924,10 +5927,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6044,10 +6047,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6070,19 +6073,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6131,7 +6134,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6152,10 +6155,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6166,10 +6169,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6195,16 +6198,16 @@
         <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6253,7 +6256,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6268,16 +6271,16 @@
         <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6288,14 +6291,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6317,13 +6320,13 @@
         <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6349,13 +6352,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6373,7 +6376,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6382,7 +6385,7 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>104</v>
@@ -6394,24 +6397,24 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6526,10 +6529,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6646,10 +6649,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6672,19 +6675,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6733,7 +6736,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6754,10 +6757,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6768,10 +6771,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6797,16 +6800,16 @@
         <v>169</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6855,7 +6858,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6870,16 +6873,16 @@
         <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6890,10 +6893,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6916,17 +6919,17 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6975,7 +6978,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6996,10 +6999,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7010,10 +7013,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7036,13 +7039,13 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7093,7 +7096,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>92</v>
@@ -7111,31 +7114,31 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7154,13 +7157,13 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7211,7 +7214,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7229,31 +7232,31 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7272,13 +7275,13 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7329,7 +7332,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7347,27 +7350,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7390,13 +7393,13 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7423,13 +7426,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7447,7 +7450,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7471,25 +7474,25 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7508,13 +7511,13 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7565,7 +7568,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7583,31 +7586,31 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7626,16 +7629,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7685,7 +7688,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7703,31 +7706,31 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7749,13 +7752,13 @@
         <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7781,13 +7784,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7805,7 +7808,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7823,16 +7826,16 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -7840,14 +7843,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7866,16 +7869,16 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7925,7 +7928,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7943,16 +7946,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7960,10 +7963,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7989,10 +7992,10 @@
         <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8019,13 +8022,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8043,7 +8046,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8067,10 +8070,10 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8078,10 +8081,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8104,13 +8107,13 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8161,7 +8164,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8185,10 +8188,10 @@
         <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8196,10 +8199,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8225,13 +8228,13 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8257,13 +8260,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8281,7 +8284,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8299,16 +8302,16 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8316,10 +8319,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8342,16 +8345,16 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8401,7 +8404,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8419,16 +8422,16 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8436,10 +8439,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8462,13 +8465,13 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8519,7 +8522,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8537,13 +8540,13 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8554,14 +8557,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8580,16 +8583,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8639,7 +8642,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8657,13 +8660,13 @@
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8674,10 +8677,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8700,16 +8703,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8759,7 +8762,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8780,10 +8783,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8794,14 +8797,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8823,16 +8826,16 @@
         <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8857,13 +8860,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -8881,7 +8884,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8902,24 +8905,24 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8942,13 +8945,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8999,7 +9002,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9017,27 +9020,27 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9152,10 +9155,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9272,10 +9275,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9298,16 +9301,16 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9357,7 +9360,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9381,7 +9384,7 @@
         <v>135</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9392,10 +9395,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9418,13 +9421,13 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9475,7 +9478,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9499,7 +9502,7 @@
         <v>135</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9510,10 +9513,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9536,13 +9539,13 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9593,7 +9596,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>92</v>
@@ -9608,7 +9611,7 @@
         <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>82</v>
@@ -9617,7 +9620,7 @@
         <v>135</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9628,10 +9631,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9657,10 +9660,10 @@
         <v>169</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9711,7 +9714,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9732,10 +9735,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9746,10 +9749,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9772,16 +9775,16 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9831,7 +9834,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9849,13 +9852,13 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de la ressource TDDUIServiceRequestBesoin permettant de représenter les besoins de l'usager.</t>
+    <t>Profil de la ressource ServiceRequest permettant de représenter les besoins de l'usager.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -521,7 +521,7 @@
     <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
   </si>
   <si>
-    <t>identifiantBesoin</t>
+    <t>idBesoin</t>
   </si>
   <si>
     <t>Request.identifier</t>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,7 +475,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Ce profil permet de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,7 +475,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Ce profil permet de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Extension permettant de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
